--- a/past/settings.xlsx
+++ b/past/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruslan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D3277-70DD-4908-9B05-48DE146B060B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD446C2-A703-4844-A41B-D9A2CD79E5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="3465" windowWidth="21600" windowHeight="8310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>0.3</t>
   </si>
 </sst>
 </file>
